--- a/Pagos Enero 2026.xlsx
+++ b/Pagos Enero 2026.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet-my.sharepoint.com/personal/n595194_ucloud_santandergroup_net/Documents/Documentos/Fabio/Datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_0AD5E4B8A955D8897B151DB3CF521C9BA1927AE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF944A9D-9B27-42C6-AD97-5F08CB764F4D}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" tabRatio="990"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
     <sheet name="Noviembre" sheetId="11" r:id="rId11"/>
     <sheet name="Diciembre" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="48">
   <si>
     <t>Cuota crédito Hipotecario</t>
   </si>
@@ -178,12 +185,18 @@
   </si>
   <si>
     <t>Tecnomecanica Hunter</t>
+  </si>
+  <si>
+    <t>Bbogota Credito</t>
+  </si>
+  <si>
+    <t>Seguro Moto SURA X2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.0;[Red]\([$$-240A]#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$ &quot;#,##0.00;[Red]&quot;$ &quot;#,##0.00"/>
@@ -542,7 +555,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -868,29 +881,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125"/>
-    <col min="3" max="3" width="17.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125"/>
+    <col min="3" max="3" width="17.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>41</v>
       </c>
@@ -904,7 +917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>45</v>
       </c>
@@ -912,7 +925,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>33</v>
       </c>
@@ -920,7 +933,7 @@
         <v>326300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>32</v>
       </c>
@@ -932,7 +945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -941,7 +954,7 @@
       </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
@@ -949,7 +962,7 @@
         <v>687401</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
@@ -957,7 +970,7 @@
         <v>1567940</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -971,7 +984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
@@ -985,7 +998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
@@ -999,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1066,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>31</v>
       </c>
@@ -1068,7 +1081,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>302000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
@@ -1098,16 +1111,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D8" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D12" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D16" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId11"/>
@@ -1115,22 +1128,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -1139,7 +1152,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>1758645</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -1175,7 +1188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -1205,7 +1218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1316,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -1314,32 +1327,32 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -1351,23 +1364,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="1025" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1398,7 @@
         <v>1758645</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -1415,7 +1428,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1446,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -1451,7 +1464,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1482,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1500,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1518,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1536,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1554,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1570,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1580,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -1578,27 +1591,27 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -1606,14 +1619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -1621,7 +1634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1651,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>28</v>
       </c>
@@ -1663,7 +1676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +1704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>3</v>
       </c>
@@ -1745,7 +1758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1793,7 @@
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1790,27 +1803,27 @@
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="D7" r:id="rId8"/>
-    <hyperlink ref="D5" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+    <hyperlink ref="D13" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -1819,24 +1832,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125"/>
-    <col min="5" max="5" width="22.42578125"/>
-    <col min="6" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875"/>
+    <col min="5" max="5" width="22.453125"/>
+    <col min="6" max="1025" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -1846,29 +1859,29 @@
       <c r="C1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21">
-        <v>676605</v>
+        <v>687401</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="21">
-        <v>2148134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1937633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B4" s="21">
-        <v>875256</v>
+        <v>880016</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>27</v>
@@ -1877,186 +1890,173 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="23">
-        <v>822399</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="21">
+        <v>666406</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="21">
-        <v>664196</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>338000</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26">
-        <v>315000</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1873981</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" s="21">
-        <v>1320000</v>
+        <v>82187</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21">
-        <v>82187</v>
+        <v>193760</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="21">
-        <v>182494</v>
+        <v>19559</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="21">
-        <v>24958</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12">
+        <v>72345</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12">
-        <v>88924</v>
-      </c>
-      <c r="D12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B12" s="14">
         <v>302000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="16">
-        <f>SUM(B1:B13)</f>
-        <v>8502153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
+      <c r="B13" s="16">
+        <f>SUM(B1:B12)</f>
+        <v>8053288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="27"/>
       <c r="C17" s="24"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="D6" r:id="rId8"/>
-    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{C4233214-5DAD-4471-A97A-D20F155EB7D8}"/>
+    <hyperlink ref="D7" r:id="rId2" location="/cargos/fiduciaria" xr:uid="{59BAA139-1546-47A9-8CF9-832BA39A3A4C}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{FF7355A8-B434-40C1-A6F6-2ACCE3FE4127}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{4DCE058D-1D9D-4075-B325-7136CCF2F15A}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{5019E4AF-818D-4C0A-AF64-57651A1E97CB}"/>
+    <hyperlink ref="D11" r:id="rId6" location="/Pagos" xr:uid="{731A9118-72B0-4D9C-BEC7-61B0BED919DA}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{15AD03B0-8E9B-4A6B-8463-379535E39B51}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{190EEBA7-933A-47A7-82DB-961A933B436C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.5703125"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="10.5703125"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.54296875"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>5000818</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="34">
         <f>SUM(B7:B13)</f>
         <v>2338494</v>
@@ -2260,7 +2260,7 @@
         <v>5179282</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -2270,39 +2270,39 @@
         <v>7517776</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="34">
         <f>SUM(B4,B5,B6)</f>
         <v>2361851</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="D6" r:id="rId8"/>
-    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -2310,23 +2310,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="1026" width="10.5703125"/>
+    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="1026" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>1786194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2513,13 +2513,13 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -2527,15 +2527,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -2543,21 +2543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>1786194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2744,32 +2744,32 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>230000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -2781,23 +2781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625"/>
-    <col min="2" max="2" width="20.7109375"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="26.1796875"/>
+    <col min="2" max="2" width="20.7265625"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>1786194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2984,42 +2984,42 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -3027,22 +3027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>741098</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -3228,42 +3228,42 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="33"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -3275,22 +3275,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125"/>
-    <col min="2" max="2" width="21.28515625"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="25.453125"/>
+    <col min="2" max="2" width="21.26953125"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="10.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>1516006</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -3476,42 +3476,42 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="33"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
@@ -3519,22 +3519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375"/>
+    <col min="4" max="4" width="25.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>4340984</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="10"/>
@@ -3735,15 +3735,15 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7" location="/Pagos"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" location="/cargos/fiduciaria" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" location="/Pagos" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId10"/>
